--- a/labirinto_star_algoritmo.xlsx
+++ b/labirinto_star_algoritmo.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -453,125 +452,20 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(8, 2)</t>
+          <t>(18, 2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(1, 7)</t>
+          <t>(15, 8)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B3" t="n">
-        <v>65</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(3, 21)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(52, 30)</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>67</v>
-      </c>
-      <c r="B4" t="n">
-        <v>105</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(97, 28)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(92, 42)</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>(1, 3)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(4, 2)</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>65</v>
-      </c>
-      <c r="B6" t="n">
-        <v>23</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>(17, 17)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(14, 7)</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>(3, 4)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(9, 9)</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/labirinto_star_algoritmo.xlsx
+++ b/labirinto_star_algoritmo.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -468,6 +468,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(3, 14)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(4, 22)</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(8, 5)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5, 4)</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/labirinto_star_algoritmo.xlsx
+++ b/labirinto_star_algoritmo.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -510,6 +510,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(9, 8)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(4, 5)</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(19, 3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>(16, 15)</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
